--- a/www/IndicatorsPerCountry/Japan_GDPperCapita_TerritorialRef_1952_2012_CCode_392.xlsx
+++ b/www/IndicatorsPerCountry/Japan_GDPperCapita_TerritorialRef_1952_2012_CCode_392.xlsx
@@ -507,13 +507,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Japan_GDPperCapita_TerritorialRef_1952_2012_CCode_392.xlsx
+++ b/www/IndicatorsPerCountry/Japan_GDPperCapita_TerritorialRef_1952_2012_CCode_392.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="162">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,448 +36,433 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>574</t>
+    <t>1061</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>559</t>
-  </si>
-  <si>
-    <t>629</t>
-  </si>
-  <si>
-    <t>598</t>
-  </si>
-  <si>
-    <t>641</t>
-  </si>
-  <si>
-    <t>681</t>
-  </si>
-  <si>
-    <t>737</t>
-  </si>
-  <si>
-    <t>742</t>
-  </si>
-  <si>
-    <t>746</t>
-  </si>
-  <si>
-    <t>751</t>
-  </si>
-  <si>
-    <t>756</t>
-  </si>
-  <si>
-    <t>810</t>
-  </si>
-  <si>
-    <t>785</t>
-  </si>
-  <si>
-    <t>803</t>
-  </si>
-  <si>
-    <t>794</t>
-  </si>
-  <si>
-    <t>835</t>
-  </si>
-  <si>
-    <t>863</t>
-  </si>
-  <si>
-    <t>829</t>
-  </si>
-  <si>
-    <t>844</t>
-  </si>
-  <si>
-    <t>837</t>
-  </si>
-  <si>
-    <t>836</t>
-  </si>
-  <si>
-    <t>860</t>
-  </si>
-  <si>
-    <t>916</t>
-  </si>
-  <si>
-    <t>952</t>
-  </si>
-  <si>
-    <t>900</t>
-  </si>
-  <si>
-    <t>933</t>
-  </si>
-  <si>
-    <t>1012</t>
-  </si>
-  <si>
-    <t>956</t>
-  </si>
-  <si>
-    <t>1013</t>
-  </si>
-  <si>
-    <t>1008</t>
-  </si>
-  <si>
-    <t>1119</t>
-  </si>
-  <si>
-    <t>1123</t>
-  </si>
-  <si>
-    <t>1051</t>
-  </si>
-  <si>
-    <t>1062</t>
-  </si>
-  <si>
-    <t>1249</t>
-  </si>
-  <si>
-    <t>1143</t>
-  </si>
-  <si>
-    <t>1180</t>
-  </si>
-  <si>
-    <t>1206</t>
-  </si>
-  <si>
-    <t>1129</t>
-  </si>
-  <si>
-    <t>1193</t>
-  </si>
-  <si>
-    <t>1188</t>
-  </si>
-  <si>
-    <t>1157</t>
-  </si>
-  <si>
-    <t>1297</t>
-  </si>
-  <si>
-    <t>1325</t>
-  </si>
-  <si>
-    <t>1318</t>
-  </si>
-  <si>
-    <t>1301</t>
-  </si>
-  <si>
-    <t>1304</t>
-  </si>
-  <si>
-    <t>1356</t>
-  </si>
-  <si>
-    <t>1384</t>
-  </si>
-  <si>
-    <t>1387</t>
-  </si>
-  <si>
-    <t>1327</t>
-  </si>
-  <si>
-    <t>1430</t>
-  </si>
-  <si>
-    <t>1630</t>
-  </si>
-  <si>
-    <t>1665</t>
-  </si>
-  <si>
-    <t>1668</t>
-  </si>
-  <si>
-    <t>1827</t>
-  </si>
-  <si>
-    <t>1696</t>
-  </si>
-  <si>
-    <t>1860</t>
-  </si>
-  <si>
-    <t>1831</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1836</t>
-  </si>
-  <si>
-    <t>1885</t>
-  </si>
-  <si>
-    <t>1872</t>
-  </si>
-  <si>
-    <t>1870</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>2026</t>
-  </si>
-  <si>
-    <t>1850</t>
-  </si>
-  <si>
-    <t>1837</t>
-  </si>
-  <si>
-    <t>1962</t>
-  </si>
-  <si>
-    <t>2122</t>
-  </si>
-  <si>
-    <t>2098</t>
-  </si>
-  <si>
-    <t>2120</t>
-  </si>
-  <si>
-    <t>2244</t>
-  </si>
-  <si>
-    <t>2315</t>
-  </si>
-  <si>
-    <t>2449</t>
-  </si>
-  <si>
-    <t>2816</t>
-  </si>
-  <si>
-    <t>2874</t>
-  </si>
-  <si>
-    <t>2873</t>
-  </si>
-  <si>
-    <t>2818</t>
-  </si>
-  <si>
-    <t>2822</t>
-  </si>
-  <si>
-    <t>2659</t>
-  </si>
-  <si>
-    <t>1346</t>
-  </si>
-  <si>
-    <t>1444</t>
-  </si>
-  <si>
-    <t>1541</t>
-  </si>
-  <si>
-    <t>1725</t>
-  </si>
-  <si>
-    <t>1800</t>
-  </si>
-  <si>
-    <t>1921</t>
-  </si>
-  <si>
-    <t>2126</t>
-  </si>
-  <si>
-    <t>2336</t>
-  </si>
-  <si>
-    <t>2474</t>
-  </si>
-  <si>
-    <t>2582</t>
-  </si>
-  <si>
-    <t>2771</t>
-  </si>
-  <si>
-    <t>2948</t>
-  </si>
-  <si>
-    <t>3136</t>
-  </si>
-  <si>
-    <t>3289</t>
-  </si>
-  <si>
-    <t>3554</t>
-  </si>
-  <si>
-    <t>3986</t>
-  </si>
-  <si>
-    <t>4426</t>
-  </si>
-  <si>
-    <t>4777</t>
-  </si>
-  <si>
-    <t>5129</t>
-  </si>
-  <si>
-    <t>5668</t>
-  </si>
-  <si>
-    <t>5934</t>
-  </si>
-  <si>
-    <t>6506</t>
-  </si>
-  <si>
-    <t>7152</t>
-  </si>
-  <si>
-    <t>7983</t>
-  </si>
-  <si>
-    <t>8874</t>
-  </si>
-  <si>
-    <t>9714</t>
-  </si>
-  <si>
-    <t>10040</t>
-  </si>
-  <si>
-    <t>10734</t>
-  </si>
-  <si>
-    <t>11434</t>
-  </si>
-  <si>
-    <t>11145</t>
-  </si>
-  <si>
-    <t>11344</t>
-  </si>
-  <si>
-    <t>11669</t>
-  </si>
-  <si>
-    <t>12064</t>
-  </si>
-  <si>
-    <t>12585</t>
-  </si>
-  <si>
-    <t>13163</t>
-  </si>
-  <si>
-    <t>13428</t>
-  </si>
-  <si>
-    <t>13754</t>
-  </si>
-  <si>
-    <t>14078</t>
-  </si>
-  <si>
-    <t>14307</t>
-  </si>
-  <si>
-    <t>14773</t>
-  </si>
-  <si>
-    <t>15331</t>
-  </si>
-  <si>
-    <t>15679</t>
-  </si>
-  <si>
-    <t>16251</t>
-  </si>
-  <si>
-    <t>17185</t>
-  </si>
-  <si>
-    <t>17943</t>
-  </si>
-  <si>
-    <t>18789.0711639</t>
-  </si>
-  <si>
-    <t>19347.1030845</t>
-  </si>
-  <si>
-    <t>19440.2992989</t>
-  </si>
-  <si>
-    <t>19417.4356107</t>
-  </si>
-  <si>
-    <t>19536.8194484</t>
-  </si>
-  <si>
-    <t>19871.7144566</t>
-  </si>
-  <si>
-    <t>20343.3604494</t>
-  </si>
-  <si>
-    <t>20617.437615</t>
-  </si>
-  <si>
-    <t>20154.4939971</t>
-  </si>
-  <si>
-    <t>20070.3990883</t>
-  </si>
-  <si>
-    <t>20480.951265</t>
-  </si>
-  <si>
-    <t>20499.9079527</t>
-  </si>
-  <si>
-    <t>20516.8492325</t>
-  </si>
-  <si>
-    <t>20832.9978499</t>
-  </si>
-  <si>
-    <t>21301.1782487</t>
-  </si>
-  <si>
-    <t>21575.0234741</t>
-  </si>
-  <si>
-    <t>21938.1705923</t>
-  </si>
-  <si>
-    <t>22410.0656101</t>
-  </si>
-  <si>
-    <t>22175.1244681</t>
-  </si>
-  <si>
-    <t>20963.2002966</t>
-  </si>
-  <si>
-    <t>21934.9033913</t>
+    <t>1073</t>
+  </si>
+  <si>
+    <t>1073.25</t>
+  </si>
+  <si>
+    <t>953</t>
+  </si>
+  <si>
+    <t>1317</t>
+  </si>
+  <si>
+    <t>1316.52</t>
+  </si>
+  <si>
+    <t>1435.77</t>
+  </si>
+  <si>
+    <t>1436</t>
+  </si>
+  <si>
+    <t>1580</t>
+  </si>
+  <si>
+    <t>1607.49</t>
+  </si>
+  <si>
+    <t>1728.68047257</t>
+  </si>
+  <si>
+    <t>1831.88223528</t>
+  </si>
+  <si>
+    <t>1847.5294539</t>
+  </si>
+  <si>
+    <t>1723.56860349</t>
+  </si>
+  <si>
+    <t>1754.53375014</t>
+  </si>
+  <si>
+    <t>1853.57544798</t>
+  </si>
+  <si>
+    <t>1749.73712877</t>
+  </si>
+  <si>
+    <t>1841.70190515</t>
+  </si>
+  <si>
+    <t>1832.44389642</t>
+  </si>
+  <si>
+    <t>2016.41873874</t>
+  </si>
+  <si>
+    <t>2021.82542721</t>
+  </si>
+  <si>
+    <t>1904.44316682</t>
+  </si>
+  <si>
+    <t>1904.51098668</t>
+  </si>
+  <si>
+    <t>2232.85452816</t>
+  </si>
+  <si>
+    <t>2104.55718171</t>
+  </si>
+  <si>
+    <t>2123.25060819</t>
+  </si>
+  <si>
+    <t>2161.51483428</t>
+  </si>
+  <si>
+    <t>2012.76705888</t>
+  </si>
+  <si>
+    <t>2203.87163451</t>
+  </si>
+  <si>
+    <t>2178.9910617</t>
+  </si>
+  <si>
+    <t>2111.25102447</t>
+  </si>
+  <si>
+    <t>2328.97726425</t>
+  </si>
+  <si>
+    <t>2358.22048701</t>
+  </si>
+  <si>
+    <t>2356.91760126</t>
+  </si>
+  <si>
+    <t>2333.20124235</t>
+  </si>
+  <si>
+    <t>2316.97590609</t>
+  </si>
+  <si>
+    <t>2399.77477131</t>
+  </si>
+  <si>
+    <t>2419.70949012</t>
+  </si>
+  <si>
+    <t>2430.62504205</t>
+  </si>
+  <si>
+    <t>2357.80394835</t>
+  </si>
+  <si>
+    <t>2512.06480389</t>
+  </si>
+  <si>
+    <t>2829.28709514</t>
+  </si>
+  <si>
+    <t>2940.62584185</t>
+  </si>
+  <si>
+    <t>2973.4880016</t>
+  </si>
+  <si>
+    <t>3219.30540102</t>
+  </si>
+  <si>
+    <t>2973.96228429</t>
+  </si>
+  <si>
+    <t>3244.35210021</t>
+  </si>
+  <si>
+    <t>3243.83007618</t>
+  </si>
+  <si>
+    <t>3243.54978144</t>
+  </si>
+  <si>
+    <t>3316.35719319</t>
+  </si>
+  <si>
+    <t>3414.35396529</t>
+  </si>
+  <si>
+    <t>3358.53933669</t>
+  </si>
+  <si>
+    <t>3346.89218283</t>
+  </si>
+  <si>
+    <t>3554.11569192</t>
+  </si>
+  <si>
+    <t>3665.08668594</t>
+  </si>
+  <si>
+    <t>3334.10818374</t>
+  </si>
+  <si>
+    <t>3320.81067189</t>
+  </si>
+  <si>
+    <t>3529.28786259</t>
+  </si>
+  <si>
+    <t>3786.8017329</t>
+  </si>
+  <si>
+    <t>3755.68783221</t>
+  </si>
+  <si>
+    <t>3825.30299619</t>
+  </si>
+  <si>
+    <t>3985.54558119</t>
+  </si>
+  <si>
+    <t>4074.92227323</t>
+  </si>
+  <si>
+    <t>4256.84109609</t>
+  </si>
+  <si>
+    <t>4803.78281109</t>
+  </si>
+  <si>
+    <t>4882.39852782</t>
+  </si>
+  <si>
+    <t>4986.24</t>
+  </si>
+  <si>
+    <t>4938.54</t>
+  </si>
+  <si>
+    <t>4825.65</t>
+  </si>
+  <si>
+    <t>4816.11</t>
+  </si>
+  <si>
+    <t>3677.67</t>
+  </si>
+  <si>
+    <t>2771.37</t>
+  </si>
+  <si>
+    <t>2710.95</t>
+  </si>
+  <si>
+    <t>2857.23</t>
+  </si>
+  <si>
+    <t>2866.77</t>
+  </si>
+  <si>
+    <t>3062</t>
+  </si>
+  <si>
+    <t>3389</t>
+  </si>
+  <si>
+    <t>3724</t>
+  </si>
+  <si>
+    <t>3944</t>
+  </si>
+  <si>
+    <t>4116</t>
+  </si>
+  <si>
+    <t>4417</t>
+  </si>
+  <si>
+    <t>4699</t>
+  </si>
+  <si>
+    <t>4999</t>
+  </si>
+  <si>
+    <t>5243</t>
+  </si>
+  <si>
+    <t>5665</t>
+  </si>
+  <si>
+    <t>6354</t>
+  </si>
+  <si>
+    <t>7055</t>
+  </si>
+  <si>
+    <t>7614</t>
+  </si>
+  <si>
+    <t>8176</t>
+  </si>
+  <si>
+    <t>9035</t>
+  </si>
+  <si>
+    <t>9459</t>
+  </si>
+  <si>
+    <t>10370</t>
+  </si>
+  <si>
+    <t>11400</t>
+  </si>
+  <si>
+    <t>12725</t>
+  </si>
+  <si>
+    <t>14145</t>
+  </si>
+  <si>
+    <t>15484</t>
+  </si>
+  <si>
+    <t>16004</t>
+  </si>
+  <si>
+    <t>17110</t>
+  </si>
+  <si>
+    <t>18226</t>
+  </si>
+  <si>
+    <t>17765</t>
+  </si>
+  <si>
+    <t>18082</t>
+  </si>
+  <si>
+    <t>18600</t>
+  </si>
+  <si>
+    <t>19230</t>
+  </si>
+  <si>
+    <t>20060</t>
+  </si>
+  <si>
+    <t>20982</t>
+  </si>
+  <si>
+    <t>21404</t>
+  </si>
+  <si>
+    <t>21924</t>
+  </si>
+  <si>
+    <t>22440</t>
+  </si>
+  <si>
+    <t>22805</t>
+  </si>
+  <si>
+    <t>23548</t>
+  </si>
+  <si>
+    <t>24437</t>
+  </si>
+  <si>
+    <t>24992</t>
+  </si>
+  <si>
+    <t>25904</t>
+  </si>
+  <si>
+    <t>27393</t>
+  </si>
+  <si>
+    <t>28601</t>
+  </si>
+  <si>
+    <t>29949</t>
+  </si>
+  <si>
+    <t>30837.4307370409</t>
+  </si>
+  <si>
+    <t>30977.8144904312</t>
+  </si>
+  <si>
+    <t>30920.6592683117</t>
+  </si>
+  <si>
+    <t>31135.4272257458</t>
+  </si>
+  <si>
+    <t>31887.2776357645</t>
+  </si>
+  <si>
+    <t>32784.1581859793</t>
+  </si>
+  <si>
+    <t>33038.2930013985</t>
+  </si>
+  <si>
+    <t>32558.1866160658</t>
+  </si>
+  <si>
+    <t>32394.5154905404</t>
+  </si>
+  <si>
+    <t>33210.8078159904</t>
+  </si>
+  <si>
+    <t>33246.3920663478</t>
+  </si>
+  <si>
+    <t>33195.4004758957</t>
+  </si>
+  <si>
+    <t>33619.9480705683</t>
+  </si>
+  <si>
+    <t>34313.5568847059</t>
+  </si>
+  <si>
+    <t>34857.7558196049</t>
+  </si>
+  <si>
+    <t>35333.1130923739</t>
+  </si>
+  <si>
+    <t>35892.7127732509</t>
+  </si>
+  <si>
+    <t>35496.22745171</t>
+  </si>
+  <si>
+    <t>33590.0109446027</t>
+  </si>
+  <si>
+    <t>35011.4025017665</t>
+  </si>
+  <si>
+    <t>34979</t>
+  </si>
+  <si>
+    <t>35580</t>
+  </si>
+  <si>
+    <t>36354</t>
+  </si>
+  <si>
+    <t>36537</t>
+  </si>
+  <si>
+    <t>37031</t>
+  </si>
+  <si>
+    <t>37465</t>
   </si>
   <si>
     <t>Description</t>
@@ -1445,7 +1430,7 @@
         <v>1650.0</v>
       </c>
       <c r="E52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -2295,7 +2280,7 @@
         <v>1700.0</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103">
@@ -2652,7 +2637,7 @@
         <v>1721.0</v>
       </c>
       <c r="E123" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124">
@@ -4063,7 +4048,7 @@
         <v>1804.0</v>
       </c>
       <c r="E206" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="207">
@@ -4335,7 +4320,7 @@
         <v>1820.0</v>
       </c>
       <c r="E222" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="223">
@@ -4777,7 +4762,7 @@
         <v>1846.0</v>
       </c>
       <c r="E248" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="249">
@@ -4845,7 +4830,7 @@
         <v>1850.0</v>
       </c>
       <c r="E252" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="253">
@@ -5185,7 +5170,7 @@
         <v>1870.0</v>
       </c>
       <c r="E272" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="273">
@@ -5202,7 +5187,7 @@
         <v>1871.0</v>
       </c>
       <c r="E273" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="274">
@@ -5219,7 +5204,7 @@
         <v>1872.0</v>
       </c>
       <c r="E274" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="275">
@@ -5236,7 +5221,7 @@
         <v>1873.0</v>
       </c>
       <c r="E275" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="276">
@@ -5253,7 +5238,7 @@
         <v>1874.0</v>
       </c>
       <c r="E276" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="277">
@@ -5270,7 +5255,7 @@
         <v>1875.0</v>
       </c>
       <c r="E277" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="278">
@@ -5287,7 +5272,7 @@
         <v>1876.0</v>
       </c>
       <c r="E278" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="279">
@@ -5304,7 +5289,7 @@
         <v>1877.0</v>
       </c>
       <c r="E279" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="280">
@@ -5321,7 +5306,7 @@
         <v>1878.0</v>
       </c>
       <c r="E280" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="281">
@@ -5338,7 +5323,7 @@
         <v>1879.0</v>
       </c>
       <c r="E281" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="282">
@@ -5355,7 +5340,7 @@
         <v>1880.0</v>
       </c>
       <c r="E282" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="283">
@@ -5372,7 +5357,7 @@
         <v>1881.0</v>
       </c>
       <c r="E283" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="284">
@@ -5389,7 +5374,7 @@
         <v>1882.0</v>
       </c>
       <c r="E284" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="285">
@@ -5406,7 +5391,7 @@
         <v>1883.0</v>
       </c>
       <c r="E285" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="286">
@@ -5423,7 +5408,7 @@
         <v>1884.0</v>
       </c>
       <c r="E286" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="287">
@@ -5440,7 +5425,7 @@
         <v>1885.0</v>
       </c>
       <c r="E287" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="288">
@@ -5457,7 +5442,7 @@
         <v>1886.0</v>
       </c>
       <c r="E288" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="289">
@@ -5474,7 +5459,7 @@
         <v>1887.0</v>
       </c>
       <c r="E289" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="290">
@@ -5491,7 +5476,7 @@
         <v>1888.0</v>
       </c>
       <c r="E290" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="291">
@@ -5508,7 +5493,7 @@
         <v>1889.0</v>
       </c>
       <c r="E291" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="292">
@@ -5525,7 +5510,7 @@
         <v>1890.0</v>
       </c>
       <c r="E292" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="293">
@@ -5542,7 +5527,7 @@
         <v>1891.0</v>
       </c>
       <c r="E293" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="294">
@@ -5559,7 +5544,7 @@
         <v>1892.0</v>
       </c>
       <c r="E294" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="295">
@@ -5576,7 +5561,7 @@
         <v>1893.0</v>
       </c>
       <c r="E295" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="296">
@@ -5593,7 +5578,7 @@
         <v>1894.0</v>
       </c>
       <c r="E296" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="297">
@@ -5610,7 +5595,7 @@
         <v>1895.0</v>
       </c>
       <c r="E297" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="298">
@@ -5627,7 +5612,7 @@
         <v>1896.0</v>
       </c>
       <c r="E298" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="299">
@@ -5644,7 +5629,7 @@
         <v>1897.0</v>
       </c>
       <c r="E299" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="300">
@@ -5661,7 +5646,7 @@
         <v>1898.0</v>
       </c>
       <c r="E300" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="301">
@@ -5678,7 +5663,7 @@
         <v>1899.0</v>
       </c>
       <c r="E301" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="302">
@@ -5695,7 +5680,7 @@
         <v>1900.0</v>
       </c>
       <c r="E302" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="303">
@@ -5712,7 +5697,7 @@
         <v>1901.0</v>
       </c>
       <c r="E303" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="304">
@@ -5729,7 +5714,7 @@
         <v>1902.0</v>
       </c>
       <c r="E304" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="305">
@@ -5746,7 +5731,7 @@
         <v>1903.0</v>
       </c>
       <c r="E305" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="306">
@@ -5763,7 +5748,7 @@
         <v>1904.0</v>
       </c>
       <c r="E306" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="307">
@@ -5780,7 +5765,7 @@
         <v>1905.0</v>
       </c>
       <c r="E307" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="308">
@@ -5797,7 +5782,7 @@
         <v>1906.0</v>
       </c>
       <c r="E308" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="309">
@@ -5814,7 +5799,7 @@
         <v>1907.0</v>
       </c>
       <c r="E309" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="310">
@@ -5831,7 +5816,7 @@
         <v>1908.0</v>
       </c>
       <c r="E310" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="311">
@@ -5848,7 +5833,7 @@
         <v>1909.0</v>
       </c>
       <c r="E311" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="312">
@@ -5865,7 +5850,7 @@
         <v>1910.0</v>
       </c>
       <c r="E312" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="313">
@@ -5882,7 +5867,7 @@
         <v>1911.0</v>
       </c>
       <c r="E313" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="314">
@@ -5899,7 +5884,7 @@
         <v>1912.0</v>
       </c>
       <c r="E314" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="315">
@@ -5916,7 +5901,7 @@
         <v>1913.0</v>
       </c>
       <c r="E315" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="316">
@@ -5933,7 +5918,7 @@
         <v>1914.0</v>
       </c>
       <c r="E316" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="317">
@@ -5950,7 +5935,7 @@
         <v>1915.0</v>
       </c>
       <c r="E317" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="318">
@@ -5967,7 +5952,7 @@
         <v>1916.0</v>
       </c>
       <c r="E318" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="319">
@@ -5984,7 +5969,7 @@
         <v>1917.0</v>
       </c>
       <c r="E319" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="320">
@@ -6001,7 +5986,7 @@
         <v>1918.0</v>
       </c>
       <c r="E320" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="321">
@@ -6018,7 +6003,7 @@
         <v>1919.0</v>
       </c>
       <c r="E321" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="322">
@@ -6035,7 +6020,7 @@
         <v>1920.0</v>
       </c>
       <c r="E322" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="323">
@@ -6052,7 +6037,7 @@
         <v>1921.0</v>
       </c>
       <c r="E323" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="324">
@@ -6069,7 +6054,7 @@
         <v>1922.0</v>
       </c>
       <c r="E324" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="325">
@@ -6086,7 +6071,7 @@
         <v>1923.0</v>
       </c>
       <c r="E325" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="326">
@@ -6103,7 +6088,7 @@
         <v>1924.0</v>
       </c>
       <c r="E326" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="327">
@@ -6120,7 +6105,7 @@
         <v>1925.0</v>
       </c>
       <c r="E327" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="328">
@@ -6137,7 +6122,7 @@
         <v>1926.0</v>
       </c>
       <c r="E328" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="329">
@@ -6154,7 +6139,7 @@
         <v>1927.0</v>
       </c>
       <c r="E329" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="330">
@@ -6171,7 +6156,7 @@
         <v>1928.0</v>
       </c>
       <c r="E330" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="331">
@@ -6188,7 +6173,7 @@
         <v>1929.0</v>
       </c>
       <c r="E331" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="332">
@@ -6205,7 +6190,7 @@
         <v>1930.0</v>
       </c>
       <c r="E332" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="333">
@@ -6222,7 +6207,7 @@
         <v>1931.0</v>
       </c>
       <c r="E333" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="334">
@@ -6239,7 +6224,7 @@
         <v>1932.0</v>
       </c>
       <c r="E334" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="335">
@@ -6256,7 +6241,7 @@
         <v>1933.0</v>
       </c>
       <c r="E335" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="336">
@@ -6273,7 +6258,7 @@
         <v>1934.0</v>
       </c>
       <c r="E336" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="337">
@@ -6290,7 +6275,7 @@
         <v>1935.0</v>
       </c>
       <c r="E337" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="338">
@@ -6307,7 +6292,7 @@
         <v>1936.0</v>
       </c>
       <c r="E338" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="339">
@@ -6324,7 +6309,7 @@
         <v>1937.0</v>
       </c>
       <c r="E339" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="340">
@@ -6341,7 +6326,7 @@
         <v>1938.0</v>
       </c>
       <c r="E340" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="341">
@@ -6358,7 +6343,7 @@
         <v>1939.0</v>
       </c>
       <c r="E341" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="342">
@@ -6375,7 +6360,7 @@
         <v>1940.0</v>
       </c>
       <c r="E342" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="343">
@@ -6392,7 +6377,7 @@
         <v>1941.0</v>
       </c>
       <c r="E343" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="344">
@@ -6409,7 +6394,7 @@
         <v>1942.0</v>
       </c>
       <c r="E344" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="345">
@@ -6426,7 +6411,7 @@
         <v>1943.0</v>
       </c>
       <c r="E345" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="346">
@@ -6443,7 +6428,7 @@
         <v>1944.0</v>
       </c>
       <c r="E346" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="347">
@@ -6460,7 +6445,7 @@
         <v>1945.0</v>
       </c>
       <c r="E347" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="348">
@@ -6477,7 +6462,7 @@
         <v>1946.0</v>
       </c>
       <c r="E348" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="349">
@@ -6494,7 +6479,7 @@
         <v>1947.0</v>
       </c>
       <c r="E349" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="350">
@@ -6511,7 +6496,7 @@
         <v>1948.0</v>
       </c>
       <c r="E350" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="351">
@@ -6528,7 +6513,7 @@
         <v>1949.0</v>
       </c>
       <c r="E351" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="352">
@@ -6545,7 +6530,7 @@
         <v>1950.0</v>
       </c>
       <c r="E352" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="353">
@@ -6562,7 +6547,7 @@
         <v>1951.0</v>
       </c>
       <c r="E353" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="354">
@@ -6579,7 +6564,7 @@
         <v>1952.0</v>
       </c>
       <c r="E354" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="355">
@@ -6596,7 +6581,7 @@
         <v>1953.0</v>
       </c>
       <c r="E355" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="356">
@@ -6613,7 +6598,7 @@
         <v>1954.0</v>
       </c>
       <c r="E356" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="357">
@@ -6630,7 +6615,7 @@
         <v>1955.0</v>
       </c>
       <c r="E357" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="358">
@@ -6647,7 +6632,7 @@
         <v>1956.0</v>
       </c>
       <c r="E358" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="359">
@@ -6664,7 +6649,7 @@
         <v>1957.0</v>
       </c>
       <c r="E359" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="360">
@@ -6681,7 +6666,7 @@
         <v>1958.0</v>
       </c>
       <c r="E360" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="361">
@@ -6698,7 +6683,7 @@
         <v>1959.0</v>
       </c>
       <c r="E361" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="362">
@@ -6715,7 +6700,7 @@
         <v>1960.0</v>
       </c>
       <c r="E362" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="363">
@@ -6732,7 +6717,7 @@
         <v>1961.0</v>
       </c>
       <c r="E363" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="364">
@@ -6749,7 +6734,7 @@
         <v>1962.0</v>
       </c>
       <c r="E364" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="365">
@@ -6766,7 +6751,7 @@
         <v>1963.0</v>
       </c>
       <c r="E365" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="366">
@@ -6783,7 +6768,7 @@
         <v>1964.0</v>
       </c>
       <c r="E366" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="367">
@@ -6800,7 +6785,7 @@
         <v>1965.0</v>
       </c>
       <c r="E367" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="368">
@@ -6817,7 +6802,7 @@
         <v>1966.0</v>
       </c>
       <c r="E368" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="369">
@@ -6834,7 +6819,7 @@
         <v>1967.0</v>
       </c>
       <c r="E369" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="370">
@@ -6851,7 +6836,7 @@
         <v>1968.0</v>
       </c>
       <c r="E370" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="371">
@@ -6868,7 +6853,7 @@
         <v>1969.0</v>
       </c>
       <c r="E371" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="372">
@@ -6885,7 +6870,7 @@
         <v>1970.0</v>
       </c>
       <c r="E372" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="373">
@@ -6902,7 +6887,7 @@
         <v>1971.0</v>
       </c>
       <c r="E373" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="374">
@@ -6919,7 +6904,7 @@
         <v>1972.0</v>
       </c>
       <c r="E374" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="375">
@@ -6936,7 +6921,7 @@
         <v>1973.0</v>
       </c>
       <c r="E375" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="376">
@@ -6953,7 +6938,7 @@
         <v>1974.0</v>
       </c>
       <c r="E376" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="377">
@@ -6970,7 +6955,7 @@
         <v>1975.0</v>
       </c>
       <c r="E377" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="378">
@@ -6987,7 +6972,7 @@
         <v>1976.0</v>
       </c>
       <c r="E378" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="379">
@@ -7004,7 +6989,7 @@
         <v>1977.0</v>
       </c>
       <c r="E379" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="380">
@@ -7021,7 +7006,7 @@
         <v>1978.0</v>
       </c>
       <c r="E380" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="381">
@@ -7038,7 +7023,7 @@
         <v>1979.0</v>
       </c>
       <c r="E381" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="382">
@@ -7055,7 +7040,7 @@
         <v>1980.0</v>
       </c>
       <c r="E382" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="383">
@@ -7072,7 +7057,7 @@
         <v>1981.0</v>
       </c>
       <c r="E383" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="384">
@@ -7089,7 +7074,7 @@
         <v>1982.0</v>
       </c>
       <c r="E384" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="385">
@@ -7106,7 +7091,7 @@
         <v>1983.0</v>
       </c>
       <c r="E385" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="386">
@@ -7123,7 +7108,7 @@
         <v>1984.0</v>
       </c>
       <c r="E386" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="387">
@@ -7140,7 +7125,7 @@
         <v>1985.0</v>
       </c>
       <c r="E387" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="388">
@@ -7157,7 +7142,7 @@
         <v>1986.0</v>
       </c>
       <c r="E388" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="389">
@@ -7174,7 +7159,7 @@
         <v>1987.0</v>
       </c>
       <c r="E389" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="390">
@@ -7191,7 +7176,7 @@
         <v>1988.0</v>
       </c>
       <c r="E390" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="391">
@@ -7208,7 +7193,7 @@
         <v>1989.0</v>
       </c>
       <c r="E391" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="392">
@@ -7225,7 +7210,7 @@
         <v>1990.0</v>
       </c>
       <c r="E392" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="393">
@@ -7242,7 +7227,7 @@
         <v>1991.0</v>
       </c>
       <c r="E393" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="394">
@@ -7259,7 +7244,7 @@
         <v>1992.0</v>
       </c>
       <c r="E394" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="395">
@@ -7276,7 +7261,7 @@
         <v>1993.0</v>
       </c>
       <c r="E395" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="396">
@@ -7293,7 +7278,7 @@
         <v>1994.0</v>
       </c>
       <c r="E396" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="397">
@@ -7310,7 +7295,7 @@
         <v>1995.0</v>
       </c>
       <c r="E397" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="398">
@@ -7327,7 +7312,7 @@
         <v>1996.0</v>
       </c>
       <c r="E398" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="399">
@@ -7344,7 +7329,7 @@
         <v>1997.0</v>
       </c>
       <c r="E399" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="400">
@@ -7361,7 +7346,7 @@
         <v>1998.0</v>
       </c>
       <c r="E400" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="401">
@@ -7378,7 +7363,7 @@
         <v>1999.0</v>
       </c>
       <c r="E401" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="402">
@@ -7395,7 +7380,7 @@
         <v>2000.0</v>
       </c>
       <c r="E402" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="403">
@@ -7412,7 +7397,7 @@
         <v>2001.0</v>
       </c>
       <c r="E403" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="404">
@@ -7429,7 +7414,7 @@
         <v>2002.0</v>
       </c>
       <c r="E404" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="405">
@@ -7446,7 +7431,7 @@
         <v>2003.0</v>
       </c>
       <c r="E405" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="406">
@@ -7463,7 +7448,7 @@
         <v>2004.0</v>
       </c>
       <c r="E406" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="407">
@@ -7480,7 +7465,7 @@
         <v>2005.0</v>
       </c>
       <c r="E407" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="408">
@@ -7497,7 +7482,7 @@
         <v>2006.0</v>
       </c>
       <c r="E408" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="409">
@@ -7514,7 +7499,7 @@
         <v>2007.0</v>
       </c>
       <c r="E409" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="410">
@@ -7531,7 +7516,7 @@
         <v>2008.0</v>
       </c>
       <c r="E410" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="411">
@@ -7548,7 +7533,7 @@
         <v>2009.0</v>
       </c>
       <c r="E411" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="412">
@@ -7565,7 +7550,109 @@
         <v>2010.0</v>
       </c>
       <c r="E412" t="s">
-        <v>154</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="B413" t="s">
+        <v>5</v>
+      </c>
+      <c r="C413" t="s">
+        <v>6</v>
+      </c>
+      <c r="D413" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E413" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="B414" t="s">
+        <v>5</v>
+      </c>
+      <c r="C414" t="s">
+        <v>6</v>
+      </c>
+      <c r="D414" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E414" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="B415" t="s">
+        <v>5</v>
+      </c>
+      <c r="C415" t="s">
+        <v>6</v>
+      </c>
+      <c r="D415" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E415" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="B416" t="s">
+        <v>5</v>
+      </c>
+      <c r="C416" t="s">
+        <v>6</v>
+      </c>
+      <c r="D416" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E416" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="B417" t="s">
+        <v>5</v>
+      </c>
+      <c r="C417" t="s">
+        <v>6</v>
+      </c>
+      <c r="D417" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E417" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="B418" t="s">
+        <v>5</v>
+      </c>
+      <c r="C418" t="s">
+        <v>6</v>
+      </c>
+      <c r="D418" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E418" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -7583,50 +7670,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
         <v>157</v>
-      </c>
-      <c r="B2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" t="s">
         <v>158</v>
-      </c>
-      <c r="B3" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" t="s">
         <v>159</v>
-      </c>
-      <c r="B4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" t="s">
         <v>160</v>
-      </c>
-      <c r="B5" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" t="s">
         <v>161</v>
-      </c>
-      <c r="B6" t="s">
-        <v>166</v>
       </c>
     </row>
   </sheetData>
